--- a/medicine/Psychotrope/Manuel_Mejía_Jaramillo/Manuel_Mejía_Jaramillo.xlsx
+++ b/medicine/Psychotrope/Manuel_Mejía_Jaramillo/Manuel_Mejía_Jaramillo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Manuel_Mej%C3%ADa_Jaramillo</t>
+          <t>Manuel_Mejía_Jaramillo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Manuel Mejía Jaramillo, né en 1887 à Manizales et mort en 1958 à Bogota, est un entrepreneur colombien. Il a notamment travaillé dans la culture et le commerce du café en Colombie, dans le département du Caldas. Il occupe le poste de directeur de la Banco del Ruiz à Manizales de 1916 à 1925. Dès 1937, avec l'appui du président de la République Alfonso López Pumarejo, il dirige la Federación Nacional de Cafeteros de Colombia, après la démission d'Alejandro López au poste de directeur[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manuel Mejía Jaramillo, né en 1887 à Manizales et mort en 1958 à Bogota, est un entrepreneur colombien. Il a notamment travaillé dans la culture et le commerce du café en Colombie, dans le département du Caldas. Il occupe le poste de directeur de la Banco del Ruiz à Manizales de 1916 à 1925. Dès 1937, avec l'appui du président de la République Alfonso López Pumarejo, il dirige la Federación Nacional de Cafeteros de Colombia, après la démission d'Alejandro López au poste de directeur.
 </t>
         </is>
       </c>
